--- a/jpcore-r4/feature/swg2-身体所見サンプル/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/feature/swg2-身体所見サンプル/StructureDefinition-jp-condition.xlsx
@@ -262,7 +262,7 @@
   </si>
   <si>
     <t>A clinical condition, problem, diagnosis, or other event, situation, issue, or clinical concept that has risen to a level of concern.
-健康上の懸念となるレベルに達した、身体的、精神的、社会的な負の状態(conditon)や問題（problem／issue）、医療者による診断(diagnosis)、生じたイベント(event)、置かれている状況(situation)、臨床医学的概念(clinical concept)。</t>
+健康上の懸念となるレベルに達した、身体的、精神的、社会的な負の状態(condition)や問題（problem／issue）、医療者による診断(diagnosis)、生じたイベント(event)、置かれている状況(situation)、臨床医学的概念(clinical concept)。</t>
   </si>
   <si>
     <t>con-3:Condition.clinicalStatus SHALL be present if verificationStatus is not entered-in-error and category is problem-list-item {clinicalStatus.exists() or verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code = 'entered-in-error').exists() or category.select($this='problem-list-item').empty()}
